--- a/analysis/cnes1zjo - 2080 VisProd HSIC basic/runs_swept_args_and_selected_metrics_df.xlsx
+++ b/analysis/cnes1zjo - 2080 VisProd HSIC basic/runs_swept_args_and_selected_metrics_df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,11 @@
           <t>best epoch</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>train-val time (s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -530,6 +535,9 @@
       <c r="L2" t="n">
         <v>13</v>
       </c>
+      <c r="M2" t="n">
+        <v>583.4602632522583</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -570,6 +578,9 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" t="n">
+        <v>391.2861194610596</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -610,6 +621,9 @@
       <c r="L4" t="n">
         <v>13</v>
       </c>
+      <c r="M4" t="n">
+        <v>511.7474961280823</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -650,6 +664,9 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
+      <c r="M5" t="n">
+        <v>396.722145318985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -690,6 +707,9 @@
       <c r="L6" t="n">
         <v>3</v>
       </c>
+      <c r="M6" t="n">
+        <v>444.0601842403412</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -730,6 +750,9 @@
       <c r="L7" t="n">
         <v>16</v>
       </c>
+      <c r="M7" t="n">
+        <v>418.4549767971039</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -770,6 +793,9 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
+      <c r="M8" t="n">
+        <v>397.1649091243744</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -810,6 +836,9 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
+      <c r="M9" t="n">
+        <v>420.7139375209808</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -850,6 +879,9 @@
       <c r="L10" t="n">
         <v>19</v>
       </c>
+      <c r="M10" t="n">
+        <v>515.2110025882721</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -890,6 +922,9 @@
       <c r="L11" t="n">
         <v>13</v>
       </c>
+      <c r="M11" t="n">
+        <v>422.6435735225677</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -930,6 +965,9 @@
       <c r="L12" t="n">
         <v>2</v>
       </c>
+      <c r="M12" t="n">
+        <v>445.8866429328918</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -970,6 +1008,9 @@
       <c r="L13" t="n">
         <v>6</v>
       </c>
+      <c r="M13" t="n">
+        <v>464.3222978115082</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1010,6 +1051,9 @@
       <c r="L14" t="n">
         <v>12</v>
       </c>
+      <c r="M14" t="n">
+        <v>497.3481950759888</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1050,6 +1094,9 @@
       <c r="L15" t="n">
         <v>3</v>
       </c>
+      <c r="M15" t="n">
+        <v>463.7753341197967</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1090,6 +1137,9 @@
       <c r="L16" t="n">
         <v>13</v>
       </c>
+      <c r="M16" t="n">
+        <v>439.0265076160431</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1130,6 +1180,9 @@
       <c r="L17" t="n">
         <v>8</v>
       </c>
+      <c r="M17" t="n">
+        <v>464.8080232143402</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1170,6 +1223,9 @@
       <c r="L18" t="n">
         <v>4</v>
       </c>
+      <c r="M18" t="n">
+        <v>497.2692079544067</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1210,6 +1266,9 @@
       <c r="L19" t="n">
         <v>13</v>
       </c>
+      <c r="M19" t="n">
+        <v>488.4757285118103</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1250,6 +1309,9 @@
       <c r="L20" t="n">
         <v>18</v>
       </c>
+      <c r="M20" t="n">
+        <v>541.3373334407806</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1290,6 +1352,9 @@
       <c r="L21" t="n">
         <v>17</v>
       </c>
+      <c r="M21" t="n">
+        <v>523.8229012489319</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1330,6 +1395,9 @@
       <c r="L22" t="n">
         <v>10</v>
       </c>
+      <c r="M22" t="n">
+        <v>511.0683138370514</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1370,6 +1438,9 @@
       <c r="L23" t="n">
         <v>10</v>
       </c>
+      <c r="M23" t="n">
+        <v>415.7289154529571</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1410,6 +1481,9 @@
       <c r="L24" t="n">
         <v>21</v>
       </c>
+      <c r="M24" t="n">
+        <v>601.4795377254486</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1450,6 +1524,9 @@
       <c r="L25" t="n">
         <v>24</v>
       </c>
+      <c r="M25" t="n">
+        <v>625.0079679489136</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1490,6 +1567,9 @@
       <c r="L26" t="n">
         <v>2</v>
       </c>
+      <c r="M26" t="n">
+        <v>421.3582117557526</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1530,6 +1610,9 @@
       <c r="L27" t="n">
         <v>2</v>
       </c>
+      <c r="M27" t="n">
+        <v>442.8427596092224</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1570,6 +1653,9 @@
       <c r="L28" t="n">
         <v>13</v>
       </c>
+      <c r="M28" t="n">
+        <v>481.0515809059143</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1610,6 +1696,9 @@
       <c r="L29" t="n">
         <v>12</v>
       </c>
+      <c r="M29" t="n">
+        <v>471.6695318222046</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1650,6 +1739,9 @@
       <c r="L30" t="n">
         <v>3</v>
       </c>
+      <c r="M30" t="n">
+        <v>468.3544998168946</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1690,6 +1782,9 @@
       <c r="L31" t="n">
         <v>12</v>
       </c>
+      <c r="M31" t="n">
+        <v>411.0556948184967</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1730,6 +1825,9 @@
       <c r="L32" t="n">
         <v>18</v>
       </c>
+      <c r="M32" t="n">
+        <v>545.0840947628021</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1770,6 +1868,9 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
+      <c r="M33" t="n">
+        <v>411.6100561618805</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1810,6 +1911,9 @@
       <c r="L34" t="n">
         <v>6</v>
       </c>
+      <c r="M34" t="n">
+        <v>461.9965388774872</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1850,6 +1954,9 @@
       <c r="L35" t="n">
         <v>4</v>
       </c>
+      <c r="M35" t="n">
+        <v>466.1453728675842</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1890,6 +1997,9 @@
       <c r="L36" t="n">
         <v>8</v>
       </c>
+      <c r="M36" t="n">
+        <v>547.7452220916748</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1930,6 +2040,9 @@
       <c r="L37" t="n">
         <v>2</v>
       </c>
+      <c r="M37" t="n">
+        <v>417.3638956546783</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1970,6 +2083,9 @@
       <c r="L38" t="n">
         <v>3</v>
       </c>
+      <c r="M38" t="n">
+        <v>442.6454265117645</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2010,6 +2126,9 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
+      <c r="M39" t="n">
+        <v>420.3838181495667</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2050,6 +2169,9 @@
       <c r="L40" t="n">
         <v>4</v>
       </c>
+      <c r="M40" t="n">
+        <v>441.0914390087128</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2090,6 +2212,9 @@
       <c r="L41" t="n">
         <v>3</v>
       </c>
+      <c r="M41" t="n">
+        <v>420.5444037914276</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2130,6 +2255,9 @@
       <c r="L42" t="n">
         <v>10</v>
       </c>
+      <c r="M42" t="n">
+        <v>498.7734861373901</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2170,6 +2298,9 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
+      <c r="M43" t="n">
+        <v>391.0542070865631</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2210,6 +2341,9 @@
       <c r="L44" t="n">
         <v>3</v>
       </c>
+      <c r="M44" t="n">
+        <v>448.9933116436005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2250,6 +2384,9 @@
       <c r="L45" t="n">
         <v>12</v>
       </c>
+      <c r="M45" t="n">
+        <v>525.8906610012054</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2290,6 +2427,9 @@
       <c r="L46" t="n">
         <v>4</v>
       </c>
+      <c r="M46" t="n">
+        <v>407.4500350952149</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2330,6 +2470,9 @@
       <c r="L47" t="n">
         <v>13</v>
       </c>
+      <c r="M47" t="n">
+        <v>471.5193831920624</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2370,6 +2513,9 @@
       <c r="L48" t="n">
         <v>7</v>
       </c>
+      <c r="M48" t="n">
+        <v>470.5718488693238</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2410,6 +2556,9 @@
       <c r="L49" t="n">
         <v>4</v>
       </c>
+      <c r="M49" t="n">
+        <v>433.7383923530579</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2450,6 +2599,9 @@
       <c r="L50" t="n">
         <v>14</v>
       </c>
+      <c r="M50" t="n">
+        <v>424.4772188663483</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2490,6 +2642,9 @@
       <c r="L51" t="n">
         <v>7</v>
       </c>
+      <c r="M51" t="n">
+        <v>458.4061408042908</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2530,6 +2685,9 @@
       <c r="L52" t="n">
         <v>19</v>
       </c>
+      <c r="M52" t="n">
+        <v>539.1014029979706</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2570,6 +2728,9 @@
       <c r="L53" t="n">
         <v>2</v>
       </c>
+      <c r="M53" t="n">
+        <v>413.4044785499573</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2610,6 +2771,9 @@
       <c r="L54" t="n">
         <v>7</v>
       </c>
+      <c r="M54" t="n">
+        <v>472.0295457839966</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2650,6 +2814,9 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
+      <c r="M55" t="n">
+        <v>375.3906579017639</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2690,6 +2857,9 @@
       <c r="L56" t="n">
         <v>9</v>
       </c>
+      <c r="M56" t="n">
+        <v>463.6007885932922</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2730,6 +2900,9 @@
       <c r="L57" t="n">
         <v>12</v>
       </c>
+      <c r="M57" t="n">
+        <v>497.3830683231354</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2770,6 +2943,9 @@
       <c r="L58" t="n">
         <v>14</v>
       </c>
+      <c r="M58" t="n">
+        <v>551.9198226928711</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2810,6 +2986,9 @@
       <c r="L59" t="n">
         <v>22</v>
       </c>
+      <c r="M59" t="n">
+        <v>652.8429756164551</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2850,6 +3029,9 @@
       <c r="L60" t="n">
         <v>22</v>
       </c>
+      <c r="M60" t="n">
+        <v>676.4594089984894</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2889,6 +3071,9 @@
       </c>
       <c r="L61" t="n">
         <v>19</v>
+      </c>
+      <c r="M61" t="n">
+        <v>614.9810094833374</v>
       </c>
     </row>
   </sheetData>
